--- a/assets/results/NV_result.xlsx
+++ b/assets/results/NV_result.xlsx
@@ -7,14 +7,30 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Douglas County" sheetId="1" r:id="rId1"/>
+    <sheet name="Eureka County" sheetId="2" r:id="rId2"/>
+    <sheet name="Lincoln County" sheetId="3" r:id="rId3"/>
+    <sheet name="Nye County" sheetId="4" r:id="rId4"/>
+    <sheet name="Washoe County" sheetId="5" r:id="rId5"/>
+    <sheet name="Churchill County" sheetId="6" r:id="rId6"/>
+    <sheet name="Clark County" sheetId="7" r:id="rId7"/>
+    <sheet name="Elko County" sheetId="8" r:id="rId8"/>
+    <sheet name="Esmeralda County" sheetId="9" r:id="rId9"/>
+    <sheet name="Humboldt County" sheetId="10" r:id="rId10"/>
+    <sheet name="Lander County" sheetId="11" r:id="rId11"/>
+    <sheet name="Lyon County" sheetId="12" r:id="rId12"/>
+    <sheet name="Mineral County" sheetId="13" r:id="rId13"/>
+    <sheet name="Pershing County" sheetId="14" r:id="rId14"/>
+    <sheet name="Storey County" sheetId="15" r:id="rId15"/>
+    <sheet name="White Pine County" sheetId="16" r:id="rId16"/>
+    <sheet name="Carson City" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="88">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +191,109 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Douglas County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Eureka County</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Lincoln County</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Nye County</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>Washoe County</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Churchill County</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Clark County</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Elko County</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Esmeralda County</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Humboldt County</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Lander County</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Lyon County</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Mineral County</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Pershing County</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Storey County</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>White Pine County</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
     <t>Carson City</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>55244</v>
+        <v>48486</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>36520</v>
+        <v>38643</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1066</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1327</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1559</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>13377</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>27297</v>
+        <v>22523</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>57.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>55.8</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>41.5</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>81.09999999999999</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>70.3</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.9721254355400697</v>
+        <v>0.8164435946462716</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>3.360627177700348</v>
+        <v>3.516252390057362</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>8491</v>
+        <v>7992</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -759,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>122.735347985348</v>
+        <v>43.19486404833837</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -770,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>92.26198830409358</v>
+        <v>40.76582278481013</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>530.083147735709</v>
+        <v>270.2478941034898</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>10126.94925625066</v>
+        <v>4170.568008705114</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -803,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01379781420765027</v>
+        <v>0.005043227665706052</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -814,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1.053005464480874</v>
+        <v>0.484149855907781</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -825,7 +937,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>34107</v>
+        <v>35822</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -836,7 +948,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>37448</v>
+        <v>37251</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -847,7 +959,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>30068</v>
+        <v>-666666666</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -858,7 +970,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>32882</v>
+        <v>24100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -869,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>35932</v>
+        <v>50757</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -880,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>26629</v>
+        <v>29828</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -891,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>9103</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -913,7 +1025,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>8.199999999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -924,7 +1036,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>10.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -935,7 +1047,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>50.7</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -946,7 +1058,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>9.699999999999999</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -967,8 +1079,8 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
-        <v>10</v>
+      <c r="C39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -979,7 +1091,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -990,7 +1102,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>11.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1001,7 +1113,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>15.5</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1012,7 +1124,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1023,7 +1135,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1034,7 +1146,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>2.123287671232877</v>
+        <v>3.590909090909091</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1045,7 +1157,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>89.90000000000001</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1056,7 +1168,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>93</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1067,7 +1179,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>89.5</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1078,7 +1190,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>82.2</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1100,7 +1212,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>81.7</v>
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1111,7 +1223,9319 @@
         <v>52</v>
       </c>
       <c r="C52">
+        <v>0.846723044397463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>16834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7718518518518519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.281481481481482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>65.3982905982906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>58.41605839416059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>3756.666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.022498803255146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.260411680229775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>38367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>38686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>81167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>19847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>36940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.991228070175438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.7978142076502732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9260935143288085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.720965309200603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>53.89699570815451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1027.589595375723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.09218436873747494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.567134268537074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>55655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>68558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>22042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>41471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.876106194690265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.5993788819875776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>55667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>41259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>25393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>69.40000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9151291512915128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.070110701107011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>133.2587917042381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>54.81089743589744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>7673.011795543905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0178279061306167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.9847189376023285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>34330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>35896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>34667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>31752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.193181818181817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>91.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>81.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9658484525080042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.477941176470588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.70343137254902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>172.8788732394366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>227.134724857685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.6090909090909091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.8636363636363636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>29099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>34244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>21646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.845528455284553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8852971845672576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.026422764227642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.229674796747967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>48.52293577981651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>464.4731861198738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.07155322862129145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.6684118673647469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>41795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>14299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>23294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.59375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>80.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8428571428571429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2.023655913978494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.625806451612903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>68.45833333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1466165413533835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>38903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>38608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>88.59999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.074113856068743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>9570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.128155339805825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.990291262135922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>14.90118577075099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>33.58415841584159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1042.936134453782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0109051254089422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.8920392584514721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>41890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>28846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>48281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.510416666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>94.40000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.006396588486141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>55244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>36520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>13377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>27297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>81.09999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9721254355400697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.360627177700348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>122.735347985348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>92.26198830409358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>530.083147735709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>10126.94925625066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01379781420765027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.053005464480874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>34107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>37448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>30068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>32882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>35932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.123287671232877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>0.8838709677419355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.144781144781145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>49.86301369863013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.05670103092783505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.2628865979381443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>53333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>52917</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>172813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.6430939226519338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.6748971193415637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>61.83783783783784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06153846153846154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>39974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.1001100110011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>34078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>16657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.347607052896725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.677581863979849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>160.9591836734694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>22.36953455571227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4950.383561643835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.05184916606236403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.304568527918782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>30298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>29375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.446428571428571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>81.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8868534482758621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>464182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>288803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>11195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>25935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>114756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>249599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>71.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.074484944532488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.423137876386688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>82031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1373.584530778783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2347.550346297283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>6368.58359274858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>90448.69477359681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01653451349191714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.090847624316184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>36470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>41681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>29862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>31707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>33514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>29687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>102156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.627659574468085</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>81.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9068522483940042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>24606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>17798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>11751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9584717607973422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.926910299003322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>130.9832810867294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>76.45454545454545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>146.2664298401421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2177.262569832402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.03281299776999044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.5119464797706276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>32903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>38473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>31838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>24483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>30109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.289156626506024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.842720510095643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2228866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>930203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>265744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>19198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>220504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>697554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1130273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.120401337792642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.294314381270903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>307210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2784.111738523882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>29025.42738833792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>44986.77072737931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>511951.8134691377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01144225930895673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2.240717250922509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>34268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>30473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>27868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>35492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>29067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>384522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>40.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.615384615384615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92.90000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>81.40000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8762109795479009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>52537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>34192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>27364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>76.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7628865979381442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.78939617083947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>7763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>354.5145508224378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>245.1830188679245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>11373.73976342129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.04456911329281596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.244662614929095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>50485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>28974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>38250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>32228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.797979797979798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>80.40000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8758169934640524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.4073319755600814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>-13577729.92260692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>100.319587628866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.02586206896551724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.6379310344827587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>25506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>21667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>41250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>78.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8352816153028693</v>
       </c>
     </row>
   </sheetData>
